--- a/docs/excel/TSign.xlsx
+++ b/docs/excel/TSign.xlsx
@@ -74,10 +74,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -113,6 +109,10 @@
   </si>
   <si>
     <t>TableName: "TSign" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +534,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,15 +547,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -571,13 +571,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TSign.xlsx
+++ b/docs/excel/TSign.xlsx
@@ -94,25 +94,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花费ID</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TSign" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldEx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到当天的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计签到额外奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +194,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,12 +539,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -547,15 +554,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -573,11 +580,11 @@
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>6005</v>
+        <v>1800</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>6005</v>
+        <v>2200</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>6005</v>
+        <v>2600</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>6005</v>
+        <v>3000</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>4027</v>
+        <v>3400</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,10 +647,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>6005</v>
+        <v>3800</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>6005</v>
+        <v>5000</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
